--- a/src/test/java/runnerFiles/TestCaseToExecute.xlsx
+++ b/src/test/java/runnerFiles/TestCaseToExecute.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikant\New-workspace\Automation\src\test\java\runnerFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\HRM\OrangeHRM_Automation\src\test\java\runnerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6F9C1-ACC2-42FC-963C-295C9F844C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11CF39-F567-4B19-A832-6A34574A1D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Fail</t>
@@ -46,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,46 +364,46 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5703125"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/runnerFiles/TestCaseToExecute.xlsx
+++ b/src/test/java/runnerFiles/TestCaseToExecute.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srikant\New-workspace\Automation\src\test\java\runnerFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\HRM\OrangeHRM_Automation\src\test\java\runnerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6F9C1-ACC2-42FC-963C-295C9F844C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619728C-F834-466B-86B1-1D4988BC96F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="795" windowWidth="23730" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="6">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>TestResult</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Pass</t>
@@ -46,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,46 +364,43 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.5703125"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
